--- a/src/tasks/syncs/portalCheck/excelTask/test.xlsx
+++ b/src/tasks/syncs/portalCheck/excelTask/test.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\GitHub\yumetetsu-cron\src\tasks\syncs\portalCheck\excelTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F63D32B1-EBD7-42BD-887D-E07A93081C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFBB0A1-84C8-461B-A963-9A4FD7FDABD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AB361AB8-6BFC-41C2-AE9E-1D2603D2C896}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{AB361AB8-6BFC-41C2-AE9E-1D2603D2C896}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -393,6 +394,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC44374C-88F5-46BE-9A8E-B9AB87CBB04F}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46A375F-B742-4803-807A-E8CC77E5F33B}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
